--- a/05_Manuscript/results/5_factor edit.xlsx
+++ b/05_Manuscript/results/5_factor edit.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinbuchanan/GitHub/Research/2_projects/00_not_used_while/Gen-Scale/05_Manuscript/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048953E1-C67A-624D-8ED2-658A9D79A40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D15E424-3943-C543-84FD-305B86A878D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="84">
   <si>
     <t>ML1</t>
   </si>
@@ -242,6 +255,36 @@
   </si>
   <si>
     <t>I have imparted knowledge and skills on to others.</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>dup</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>spiritual</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>biological</t>
+  </si>
+  <si>
+    <t>physical</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
 </sst>
 </file>
@@ -291,12 +334,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,15 +650,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="44" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,11 +683,17 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0.94450611740500034</v>
       </c>
@@ -657,11 +715,17 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>0.924550593897284</v>
       </c>
@@ -683,11 +747,17 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0.91595112799944667</v>
       </c>
@@ -709,11 +779,17 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>0.84635119306659612</v>
       </c>
@@ -735,11 +811,17 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>0.81665045497121291</v>
       </c>
@@ -761,11 +843,17 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>0.77685824155612326</v>
       </c>
@@ -787,11 +875,17 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>0.76249316393669542</v>
       </c>
@@ -813,11 +907,17 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>0.64688328812896612</v>
       </c>
@@ -839,11 +939,17 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>0.52623167916241442</v>
       </c>
@@ -865,11 +971,17 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>0.33736420821497431</v>
       </c>
@@ -891,11 +1003,17 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4.4214413086222768E-4</v>
       </c>
@@ -917,11 +1035,17 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2.3550778585632499E-2</v>
       </c>
@@ -943,11 +1067,17 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-5.4093525199856874E-3</v>
       </c>
@@ -969,11 +1099,17 @@
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2.0435397254791411E-2</v>
       </c>
@@ -995,11 +1131,17 @@
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-3.0836248095070549E-2</v>
       </c>
@@ -1021,11 +1163,17 @@
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.1368291324871676</v>
       </c>
@@ -1047,11 +1195,17 @@
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5.7587183169367402E-2</v>
       </c>
@@ -1073,11 +1227,17 @@
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-8.9905814276068346E-3</v>
       </c>
@@ -1099,11 +1259,17 @@
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.13191536415617</v>
       </c>
@@ -1125,11 +1291,17 @@
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-1.6763305093580861E-3</v>
       </c>
@@ -1151,11 +1323,17 @@
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2.3213537278484419E-2</v>
       </c>
@@ -1177,11 +1355,17 @@
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>7.0643815509237901E-2</v>
       </c>
@@ -1203,11 +1387,17 @@
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-4.6546298556300872E-3</v>
       </c>
@@ -1229,11 +1419,17 @@
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-6.0464088487540223E-2</v>
       </c>
@@ -1255,11 +1451,17 @@
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3.4971814004925397E-2</v>
       </c>
@@ -1281,11 +1483,17 @@
       <c r="G26">
         <v>1</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6.7798718418008191E-2</v>
       </c>
@@ -1307,11 +1515,17 @@
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.1013675672593112</v>
       </c>
@@ -1333,11 +1547,17 @@
       <c r="G28">
         <v>1</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-4.2710758337659319E-2</v>
       </c>
@@ -1359,11 +1579,17 @@
       <c r="G29">
         <v>1</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.1212894669718991</v>
       </c>
@@ -1385,11 +1611,17 @@
       <c r="G30">
         <v>1</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-2.1950320350422398E-2</v>
       </c>
@@ -1411,11 +1643,17 @@
       <c r="G31">
         <v>1</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>75</v>
+      </c>
+      <c r="J31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.12972603130253241</v>
       </c>
@@ -1437,11 +1675,17 @@
       <c r="G32">
         <v>1</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>75</v>
+      </c>
+      <c r="J32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>-2.296967262587429E-2</v>
       </c>
@@ -1463,11 +1707,17 @@
       <c r="G33">
         <v>1</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>75</v>
+      </c>
+      <c r="J33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>5.8607598855066292E-2</v>
       </c>
@@ -1489,8 +1739,14 @@
       <c r="G34">
         <v>1</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="4" t="s">
         <v>43</v>
+      </c>
+      <c r="I34" t="s">
+        <v>75</v>
+      </c>
+      <c r="J34" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
